--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_17-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_17-14.xlsx
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
@@ -1962,7 +1965,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1982,13 +1985,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2000,7 +2003,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2008,17 +2011,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2040,7 +2043,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2060,17 +2063,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2086,13 +2089,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20.399999999999999</v>
+        <v>39</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2104,7 +2107,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2112,13 +2115,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2130,7 +2133,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2138,17 +2141,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2164,17 +2167,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2182,7 +2185,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2190,13 +2193,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2216,17 +2219,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2242,17 +2245,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2268,17 +2271,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2294,17 +2297,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2320,13 +2323,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2346,13 +2349,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2378,7 +2381,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2398,17 +2401,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2424,17 +2427,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2442,7 +2445,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2450,13 +2453,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2476,17 +2479,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2508,11 +2511,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2528,17 +2531,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>13.880000000000001</v>
+        <v>40</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2546,7 +2549,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2554,17 +2557,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>2</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2580,13 +2583,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2606,17 +2609,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2632,17 +2635,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2658,13 +2661,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2676,7 +2679,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2684,13 +2687,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2710,13 +2713,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2736,13 +2739,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2762,13 +2765,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2788,13 +2791,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2814,13 +2817,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2828,37 +2831,63 @@
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="10">
-        <v>2851.5599999999999</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="11">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
+        <v>104</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
         <v>105</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c t="s" r="F79" s="12">
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>45</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="K79" s="10">
+        <v>2882.5599999999999</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="11">
         <v>106</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c t="s" r="I79" s="14">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c t="s" r="F80" s="12">
         <v>107</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+      <c t="s" r="I80" s="14">
+        <v>108</v>
+      </c>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="236">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3088,10 +3117,13 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="I80:N80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
